--- a/biology/Biochimie/Strictosidine/Strictosidine.xlsx
+++ b/biology/Biochimie/Strictosidine/Strictosidine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La strictosidine est un alcaloïde indole-terpénique, de formule C27H34N2O9. 
-C'est un métabolite végétal notamment présent chez Catharanthus roseus, Chimarrhis turbinata et Strychnos mellodora[2].
+C'est un métabolite végétal notamment présent chez Catharanthus roseus, Chimarrhis turbinata et Strychnos mellodora.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La strictosidine est synthétisée par l'enzyme strictosidine synthase (en) par la réaction de condensation de Pictet-Spengler à partir de la sécologanine et de la tryptamine[3],[4]. Elle est à la base de milliers de dérivés, et de principes actifs importants tels que la quinine, la camptothécine, l'ajmalicine, la vinblastine et la vincristine[5],[6].
-Sa synthèse a été réussie au moyen d'une levure (Saccharomyces cerevisiae) au génome modifié[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La strictosidine est synthétisée par l'enzyme strictosidine synthase (en) par la réaction de condensation de Pictet-Spengler à partir de la sécologanine et de la tryptamine,. Elle est à la base de milliers de dérivés, et de principes actifs importants tels que la quinine, la camptothécine, l'ajmalicine, la vinblastine et la vincristine,.
+Sa synthèse a été réussie au moyen d'une levure (Saccharomyces cerevisiae) au génome modifié.
 </t>
         </is>
       </c>
